--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/vi_VN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/vi_VN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5199">
   <si>
     <t>translation_group</t>
   </si>
@@ -15568,12 +15568,6 @@
   </si>
   <si>
     <t xml:space="preserve"> thông báo</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15960,17 +15954,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54617,18 +54611,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5183</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5184</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54638,10 +54624,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="D2763" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54652,10 +54638,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
       <c r="D2764" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54666,10 +54652,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
       <c r="D2765" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54680,10 +54666,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
       <c r="D2766" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54694,10 +54680,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
       <c r="D2767" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54708,10 +54694,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="D2768" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54722,10 +54708,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
       <c r="D2769" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54764,11 +54750,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
       <c r="D2772" t="s">
-        <v>5200</v>
-      </c>
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/vi_VN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/vi_VN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5882">
   <si>
     <t>translation_group</t>
   </si>
@@ -10133,7 +10133,7 @@
     <t>Cài đặt Seo</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Điền vào các trường để có kết quả tối đa khi tìm thấy trang web của bạn trong các công cụ tìm kiếm.</t>
@@ -17065,6 +17065,616 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Chào mừng đến với Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Sử dụng Microweber để xây dựng trang web, cửa hàng trực tuyến hoặc blog của bạn.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Tạo và chỉnh sửa nội dung, bán hàng trực tuyến, quản lý đơn đặt hàng và khách hàng.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Tẩy</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Giỏ hàng bị bỏ rơi</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Bạn đang sử dụng mẫu này.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Thay đổi sẽ chỉ ảnh hưởng đến trang hiện tại.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Cho phép nhiều mẫu</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Nếu bạn cho phép nhiều mẫu, bạn sẽ có thể sử dụng các mẫu khác nhau khi tạo một trang mới.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Hệ thống cài đặt trang web e-mail</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Gửi tin nhắn liên quan đến đăng ký mới, đặt lại mật khẩu và các chức năng hệ thống khác.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Từ địa chỉ e-mail</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ví dụ. Tên trang web của bạn</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Cài đặt chung của nhà cung cấp e-mail</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Thiết lập nhà cung cấp email của bạn.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp e-mail chung sẽ gửi tất cả các tin nhắn liên quan đến trang web. Bao gồm cả tin nhắn hệ thống và tin nhắn biểu mẫu liên hệ.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Biểu trưng trang web</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Chọn một biểu trưng cho trang web của bạn.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Tải lên biểu trưng</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Trang web Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Đang thay đổi ngôn ngữ mặc định ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Xóa bộ nhớ cache ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Cài đặt mô-đun đa ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Người dùng có thể đăng ký bằng các email tạm thời như - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Đăng ký người dùng có thể tự động nhận được một email tự động từ bạn. Xem cài đặt và đăng tin nhắn của bạn.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Gửi email về đăng ký người dùng mới cho người dùng quản trị</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Bạn có muốn quản trị viên nhận được e-mail khi người dùng mới được đăng ký không?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber là trình tạo trang web kéo và thả mã nguồn mở miễn phí và CMS. Nó theo giấy phép MIT và chúng tôi sử dụng khung Laravel PHP</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Một thanh trượt</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Vận chuyển đến địa chỉ</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Nhận từ địa chỉ</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Thiết lập toàn cầu</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Tích hợp e-mail</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Bạn không có hệ thống e-mail và thiết lập smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Thiết lập cài đặt hệ thống của bạn tại đây.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Cài đặt biểu mẫu liên hệ chung</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Tùy chọn gửi e-mail</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Người gửi toàn cầu</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Sử dụng cài đặt người gửi tùy chỉnh</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Sử dụng cài đặt người gửi tùy chỉnh cho các biểu mẫu liên hệ chung.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Theo mặc định, chúng tôi sẽ sử dụng cài đặt e-mail hệ thống trang web.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Bạn có thể thay đổi cài đặt e-mail hệ thống tại đây.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Người nhận toàn cầu</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Gửi dữ liệu biểu mẫu liên hệ đến người nhận toàn cầu khi được gửi</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Tới địa chỉ e-mail</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Địa chỉ e-mail của người nhận bị tách biệt với tình trạng hôn mê.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Liên hệ với nhà cung cấp dịch vụ lưu trữ của bạn để kích hoạt phần mở rộng PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Các yếu tố</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 tháng trước đây</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Xóa biểu tượng yêu thích</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Tập quán</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Sản phẩmV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Mốc thời gian</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Nhãn trắng WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Số lượng lời chứng thực có thể nhìn thấy</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Mẫu mô-đun đã thay đổi</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Phiên bản nội dung</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Bố cục và phần tử mặc định</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Danh sách mũi tên</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Danh sách đã kiểm tra</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Văn bản nền</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Tiêu đề có văn bản</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Biểu tượng với Văn bản</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Hai cột văn bản</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Hai cột văn bản có biểu tượng và tiêu đề</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Hình ảnh với Tiêu đề và Văn bản</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Văn bản có Hình ảnh và Tiêu đề</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Bật nhận xét</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Cài đặt Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết lập tùy chọn hình ảnh xác thực của bạn từ </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Thêm / Chỉnh sửa các trường của biểu mẫu bằng cách sử dụng các trường tùy chỉnh</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Cài đặt biểu mẫu liên hệ hiện tại</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Tên biểu mẫu liên hệ</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Tên của biểu mẫu liên hệ này là gì?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Người nhận</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Gửi dữ liệu biểu mẫu liên hệ đến người nhận tùy chỉnh khi được gửi</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Sử dụng cài đặt bộ thu tùy chỉnh cho biểu mẫu liên hệ hiện tại.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Theo mặc định, chúng tôi sẽ sử dụng cài đặt chung của biểu mẫu liên hệ.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Bạn có thể thay đổi cài đặt chung của biểu mẫu liên hệ tại đây.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Tự động trả lời tin nhắn cho người dùng</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Bật thông báo trả lời tự động cho người dùng</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng nhận "Email cảm ơn sau khi đăng ký."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Tự động trả lời tin nhắn</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Tự động trả lời e-mail được gửi lại cho người dùng</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Tự động trả lời người gửi tùy chỉnh</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Sử dụng cài đặt người gửi tùy chỉnh cho biểu mẫu liên hệ hiện tại.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Tự động trả lời từ địa chỉ e-mail</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Tự động trả lời từ tên</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Tự động trả lời trả lời e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Khi người dùng nhận được thông báo trả lời tự động, họ có thể phản hồi lại để trả lời email.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Tự động trả lời tệp đính kèm e-mail</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Nếu bạn muốn đính kèm hình ảnh og, bạn phải tải chúng lên thư viện từ 'Thêm phương tiện'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Bạn chưa có bài đăng nào</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Tạo bài viết đầu tiên của bạn ngay bây giờ.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Tạo một bài đăng</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Cách viết mô tả sản phẩm bán hàng
+                                                    Một trong những điều tốt nhất bạn có thể làm để làm cho cửa hàng của mình thành công là đầu tư một chút thời gian vào việc viết mô tả sản phẩm tuyệt vời. Bạn muốn cung cấp thông tin chi tiết nhưng súc tích để thu hút khách hàng tiềm năng mua hàng.
+                                                    Hãy suy nghĩ như một người tiêu dùng
+                                                    Hãy nghĩ về những gì bạn với tư cách là người tiêu dùng muốn biết, sau đó đưa những đặc điểm đó vào mô tả của bạn. Đối với quần áo: chất liệu và độ vừa vặn. Đối với thực phẩm: thành phần và cách nó được chế biến. Dấu đầu dòng là bạn của bạn khi liệt kê các tính năng
+                                                   - cố gắng
+                                                            giới hạn mỗi tính năng trong 5-8 từ.</t>
   </si>
 </sst>
 </file>
@@ -17403,7 +18013,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67711,6 +68321,1757 @@
         <v>3611</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5685</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5687</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5689</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5690</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5691</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5692</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5693</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5697</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5699</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5703</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5711</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5713</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5715</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5717</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5719</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5879</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/vi_VN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/vi_VN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5988">
   <si>
     <t>translation_group</t>
   </si>
@@ -17091,13 +17091,13 @@
     <t>Remove</t>
   </si>
   <si>
-    <t>Tẩy</t>
+    <t>Di dời</t>
   </si>
   <si>
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Giỏ hàng bị bỏ rơi</t>
+    <t>giỏ hàng bị bỏ rơi</t>
   </si>
   <si>
     <t>You are using this template.</t>
@@ -17127,25 +17127,25 @@
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Hệ thống cài đặt trang web e-mail</t>
+    <t>Cài đặt trang web e-mail hệ thống</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Gửi tin nhắn liên quan đến đăng ký mới, đặt lại mật khẩu và các chức năng hệ thống khác.</t>
+    <t>Gửi các thông báo liên quan đến đăng ký mới, đặt lại mật khẩu và các chức năng hệ thống khác.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>Từ địa chỉ e-mail</t>
+    <t>Từ địa chỉ email</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Ví dụ. Tên trang web của bạn</t>
+    <t>Bán tại. Tên trang web của bạn</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17163,7 +17163,7 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Nhà cung cấp e-mail chung sẽ gửi tất cả các tin nhắn liên quan đến trang web. Bao gồm cả tin nhắn hệ thống và tin nhắn biểu mẫu liên hệ.</t>
+    <t>Nhà cung cấp e-mail chung sẽ gửi tất cả các thư liên quan đến trang web. Bao gồm tin nhắn hệ thống và tin nhắn form liên hệ.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17175,7 +17175,7 @@
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Chọn một biểu trưng cho trang web của bạn.</t>
+    <t>Chọn một logo cho trang web của bạn.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17187,19 +17187,19 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Trang web Favicon</t>
+    <t>Biểu tượng trang web</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Đang thay đổi ngôn ngữ mặc định ..</t>
+    <t>Thay đổi ngôn ngữ mặc định..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Xóa bộ nhớ cache ..</t>
+    <t>Xóa bộ nhớ đệm..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
@@ -17211,49 +17211,49 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Người dùng có thể đăng ký bằng các email tạm thời như - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Người dùng có thể đăng ký bằng các email tạm thời như - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Đăng ký người dùng có thể tự động nhận được một email tự động từ bạn. Xem cài đặt và đăng tin nhắn của bạn.</t>
+    <t>Đăng ký người dùng có thể tự động nhận được một email tự động từ bạn. Xem cài đặt và gửi tin nhắn của bạn.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Gửi email về đăng ký người dùng mới cho người dùng quản trị</t>
+    <t>Gửi email khi đăng ký người dùng mới cho người dùng quản trị</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Bạn có muốn quản trị viên nhận được e-mail khi người dùng mới được đăng ký không?</t>
+    <t>Bạn có muốn quản trị viên nhận e-mail khi người dùng mới được đăng ký không?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber là trình tạo trang web kéo và thả mã nguồn mở miễn phí và CMS. Nó theo giấy phép MIT và chúng tôi sử dụng khung Laravel PHP</t>
+    <t>Microweber là trình tạo trang web kéo và thả mã nguồn mở miễn phí và CMS. Nó thuộc giấy phép MIT và chúng tôi sử dụng Laravel PHP framework</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>Một thanh trượt</t>
+    <t>một thanh trượt</t>
   </si>
   <si>
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>Vận chuyển đến địa chỉ</t>
+    <t>vận chuyển đến địa chỉ</t>
   </si>
   <si>
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Nhận từ địa chỉ</t>
+    <t>Nhận hàng từ địa chỉ</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17271,31 +17271,31 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Bạn không có hệ thống e-mail và thiết lập smtp.</t>
+    <t>Bạn chưa cài đặt e-mail và smtp hệ thống.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Thiết lập cài đặt hệ thống của bạn tại đây.</t>
+    <t>Thiết lập cài đặt hệ thống của bạn ở đây.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Cài đặt biểu mẫu liên hệ chung</t>
+    <t>Cài đặt biểu mẫu liên hệ toàn cầu</t>
   </si>
   <si>
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>Tùy chọn gửi e-mail</t>
+    <t>Tùy chọn gửi email</t>
   </si>
   <si>
     <t>Global sender</t>
   </si>
   <si>
-    <t>Người gửi toàn cầu</t>
+    <t>người gửi toàn cầu</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
@@ -17307,13 +17307,13 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Sử dụng cài đặt người gửi tùy chỉnh cho các biểu mẫu liên hệ chung.</t>
+    <t>Sử dụng cài đặt người gửi tùy chỉnh cho các biểu mẫu liên hệ toàn cầu.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Theo mặc định, chúng tôi sẽ sử dụng cài đặt e-mail hệ thống trang web.</t>
+    <t>Theo mặc định, chúng tôi sẽ sử dụng cài đặt e-mail của hệ thống trang web.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17331,42 +17331,45 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Gửi dữ liệu biểu mẫu liên hệ đến người nhận toàn cầu khi được gửi</t>
+    <t>Gửi dữ liệu biểu mẫu liên hệ tới người nhận toàn cầu khi được gửi</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Tới địa chỉ e-mail</t>
+    <t>Đến các địa chỉ email</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Địa chỉ e-mail của người nhận bị tách biệt với tình trạng hôn mê.</t>
+    <t>Địa chỉ e-mail của người nhận được ngăn cách với tình trạng hôn mê.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Liên hệ với nhà cung cấp dịch vụ lưu trữ của bạn để kích hoạt phần mở rộng PHP SOAP.</t>
+    <t>Liên hệ với nhà cung cấp dịch vụ lưu trữ của bạn để kích hoạt tiện ích mở rộng PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
   </si>
   <si>
-    <t>Các yếu tố</t>
+    <t>yếu tố</t>
   </si>
   <si>
     <t>2 months ago</t>
   </si>
   <si>
-    <t>2 tháng trước đây</t>
+    <t>2 tháng trước</t>
   </si>
   <si>
     <t>Remove logo</t>
   </si>
   <si>
+    <t>Xóa biểu trưng</t>
+  </si>
+  <si>
     <t>Remove favicon</t>
   </si>
   <si>
@@ -17406,7 +17409,7 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
-    <t>Số lượng lời chứng thực có thể nhìn thấy</t>
+    <t>Số lời chứng thực có thể nhìn thấy</t>
   </si>
   <si>
     <t>Module template has changed</t>
@@ -17418,7 +17421,7 @@
     <t>Content versions</t>
   </si>
   <si>
-    <t>Phiên bản nội dung</t>
+    <t>phiên bản nội dung</t>
   </si>
   <si>
     <t>Clear Cache</t>
@@ -17427,7 +17430,7 @@
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Bố cục và phần tử mặc định</t>
+    <t>Bố cục và thành phần mặc định</t>
   </si>
   <si>
     <t>Arrows List</t>
@@ -17451,13 +17454,13 @@
     <t>Title with Text</t>
   </si>
   <si>
-    <t>Tiêu đề có văn bản</t>
+    <t>Tiêu đề với văn bản</t>
   </si>
   <si>
     <t>Icon with Text</t>
   </si>
   <si>
-    <t>Biểu tượng với Văn bản</t>
+    <t>Biểu tượng có văn bản</t>
   </si>
   <si>
     <t>Two Text Columns</t>
@@ -17475,13 +17478,13 @@
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>Hình ảnh với Tiêu đề và Văn bản</t>
+    <t>Hình ảnh có tiêu đề và văn bản</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>Văn bản có Hình ảnh và Tiêu đề</t>
+    <t>Văn bản có hình ảnh và tiêu đề</t>
   </si>
   <si>
     <t>Text with Image</t>
@@ -17490,13 +17493,13 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>Bật nhận xét</t>
+    <t>Bật bình luận</t>
   </si>
   <si>
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Cài đặt Captcha</t>
+    <t>Cài đặt hình ảnh xác thực</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
@@ -17508,7 +17511,7 @@
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
-    <t>Thêm / Chỉnh sửa các trường của biểu mẫu bằng cách sử dụng các trường tùy chỉnh</t>
+    <t>Thêm/Chỉnh sửa các trường của biểu mẫu bằng các trường tùy chỉnh</t>
   </si>
   <si>
     <t>Current contact form settings</t>
@@ -17526,31 +17529,31 @@
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Tên của biểu mẫu liên hệ này là gì?</t>
+    <t>Tên của hình thức liên lạc này là gì?</t>
   </si>
   <si>
     <t>Receivers</t>
   </si>
   <si>
-    <t>Người nhận</t>
+    <t>người nhận</t>
   </si>
   <si>
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Gửi dữ liệu biểu mẫu liên hệ đến người nhận tùy chỉnh khi được gửi</t>
+    <t>Gửi dữ liệu biểu mẫu liên hệ tới người nhận tùy chỉnh khi được gửi</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Sử dụng cài đặt bộ thu tùy chỉnh cho biểu mẫu liên hệ hiện tại.</t>
+    <t>Sử dụng cài đặt người nhận tùy chỉnh cho biểu mẫu liên hệ hiện tại.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Theo mặc định, chúng tôi sẽ sử dụng cài đặt chung của biểu mẫu liên hệ.</t>
+    <t>Theo mặc định, chúng tôi sẽ sử dụng cài đặt toàn cầu của biểu mẫu liên hệ.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17568,7 +17571,7 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Bật thông báo trả lời tự động cho người dùng</t>
+    <t>Bật tự động trả lời tin nhắn cho người dùng</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
@@ -17628,7 +17631,7 @@
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Khi người dùng nhận được thông báo trả lời tự động, họ có thể phản hồi lại để trả lời email.</t>
+    <t>Khi người dùng nhận được tin nhắn trả lời tự động, họ có thể trả lời lại để trả lời email.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
@@ -17646,7 +17649,7 @@
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Bạn chưa có bài đăng nào</t>
+    <t>Bạn chưa có bài viết nào</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
@@ -17672,18 +17675,66 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Cách viết mô tả sản phẩm bán hàng
-                                                    Một trong những điều tốt nhất bạn có thể làm để làm cho cửa hàng của mình thành công là đầu tư một chút thời gian vào việc viết mô tả sản phẩm tuyệt vời. Bạn muốn cung cấp thông tin chi tiết nhưng súc tích để thu hút khách hàng tiềm năng mua hàng.
+    <t>Cách viết mô tả sản phẩm bán
+                                                    Một trong những điều tốt nhất bạn có thể làm để giúp cửa hàng của mình thành công là đầu tư thời gian để viết những mô tả sản phẩm hấp dẫn. Bạn muốn cung cấp thông tin chi tiết nhưng ngắn gọn để lôi kéo khách hàng tiềm năng mua hàng.
                                                     Hãy suy nghĩ như một người tiêu dùng
-                                                    Hãy nghĩ về những gì bạn với tư cách là người tiêu dùng muốn biết, sau đó đưa những đặc điểm đó vào mô tả của bạn. Đối với quần áo: chất liệu và độ vừa vặn. Đối với thực phẩm: thành phần và cách nó được chế biến. Dấu đầu dòng là bạn của bạn khi liệt kê các tính năng
-                                                   - cố gắng
-                                                            giới hạn mỗi tính năng trong 5-8 từ.</t>
+                                                    Hãy suy nghĩ về những gì bạn với tư cách là người tiêu dùng muốn biết, sau đó đưa các tính năng đó vào mô tả của bạn. Đối với quần áo: chất liệu và độ vừa vặn. Đối với thực phẩm: nguyên liệu và cách chế biến. Các dấu đầu dòng là bạn của bạn khi liệt kê các tính năng của
+                                                   — cố gắng
+                                                            giới hạn mỗi từ trong 5-8 từ.</t>
   </si>
   <si>
     <t>Admin language</t>
   </si>
   <si>
-    <t>Ngôn ngữ quản trị viên</t>
+    <t>ngôn ngữ quản trị</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>thêm trang con</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Đã xóa danh mục</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Đã xóa nội dung</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>danh mục tìm kiếm</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Tạo nội dung</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Bất kỳ</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
   </si>
   <si>
     <t>Limit</t>
@@ -17692,301 +17743,208 @@
     <t>Giới hạn</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Bạn không có sản phẩm nào trong</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Quay lại</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Các trường tùy chỉnh được lưu</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>các lĩnh vực hiện có</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Chọn từ các trường hiện có của bạn dưới đây</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thêm trường mới</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Thêm trường tùy chỉnh mới từ danh sách dưới đây</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>lĩnh vực của bạn</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Danh sách các trường tùy chỉnh đã thêm của bạn</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Kho hàng</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Hệ thống</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Chuyển hướng trình duyệt</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Hội nhập</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Công cụ xuất nhập khẩu</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Trình cập nhật độc lập</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Gói xem trước</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Thử nghiệm</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Sử dụng</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Hiện hành</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Thể hiện</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Lớp học đầu tiên</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Nhấp và thu thập</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>nền video</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Bạn có thể kích hoạt mô-đun Đa ngôn ngữ để sử dụng nhiều ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Chế độ đa ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Kích hoạt chế độ đa ngôn ngữ để có nhiều ngôn ngữ cho nội dung của bạn.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Bản dịch được nhập khẩu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bản dịch không tìm thấy trong cơ sở dữ liệu. Bạn có muốn nhập bản dịch? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Giỏ của bạn trống trơn.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Trình chỉnh sửa mã</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>chức danh</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>khối văn bản</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Khối văn bản 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Khối văn bản 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Khối văn bản 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Khối văn bản 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Khối văn bản 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Khối văn bản 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Khối văn bản 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Khối văn bản 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Khối văn bản 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Khối văn bản 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Khối văn bản 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Khối văn bản 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Khối văn bản 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Khối văn bản 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Khối văn bản 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Tính năng, đặc điểm</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>lưới</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>thực đơn</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Thực đơn - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Thực đơn - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Thực đơn - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>chân trang</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Chân trang 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Chân trang 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Chân trang 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Chân trang 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>khác</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>định giá</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Định giá 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
-    <t>Bố cục mặc định</t>
-  </si>
-  <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Không có nội dung nào ở đây</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Các trường tùy chỉnh đã được lưu</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Các trường hiện có</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Chọn từ các trường hiện có của bạn dưới đây</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thêm các trường mới</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Thêm trường tùy chỉnh mới từ danh sách bên dưới</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Lĩnh vực của bạn</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Danh sách các trường tùy chỉnh đã thêm của bạn</t>
+    <t>bố cục mặc định</t>
+  </si>
+  <si>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nhập mới</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -17998,13 +17956,13 @@
     <t>Font Family</t>
   </si>
   <si>
-    <t>Họ Phông chữ</t>
+    <t>Họ phông chữ</t>
   </si>
   <si>
     <t>Overlay</t>
   </si>
   <si>
-    <t>Lớp phủ</t>
+    <t>lớp phủ</t>
   </si>
   <si>
     <t>Blend mode</t>
@@ -18034,505 +17992,7 @@
     <t>Reloading styles</t>
   </si>
   <si>
-    <t>Đang tải lại các kiểu</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Liên kết đến</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Xem trước gói</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Thử nghiệm</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Sử dụng</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Hiện hành</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Sắp xếp lại</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Hệ thống</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Chuyển hướng trình duyệt</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Hội nhập</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Trình cập nhật độc lập</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Bạn cần có khóa cấp phép để cài đặt gói này</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Gói này là cao cấp và bạn phải có khóa cấp phép để cài đặt nó</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Bạn cần khóa cấp phép</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Giấy phép đã được kích hoạt</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Đang tải lại trang</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Giấy phép chưa được kích hoạt</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Cập nhật hệ thống</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Kiểm tra các bản cập nhật hệ thống</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Trở lại danh sách</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Danh mục phải có tên</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Danh mục có bị ẩn không?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Nếu bạn đặt điều này thành CÓ, danh mục này sẽ bị ẩn khỏi trang web</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Đề cập</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Giỏ của bạn trống trơn.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Kết quả tìm thấy</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Nếu bạn chọn Phần trăm từ trường đã chọn, nó sẽ được tính tự động từ Giá và Giá ưu đãi của sản phẩm.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>giá trị.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Tiến hành kiểm tra</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>của</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>các kết quả)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Tiêu đề trang - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Tiêu đề trang - Breadcrumb bên trái</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Điều khoản sử dụng</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Giao hàng và trả hàng</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Khoảng 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Khoảng 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Khoảng 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Nhà 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>nhà 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Bạn phải nhấp vào nút áp dụng mẫu để thay đổi mẫu của mình</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Tìm kiếm theo tiêu chí</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>ID đặt hàng</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Từ ngày</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Đặt các đơn đặt hàng từ ngày</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Ngày tới</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Đặt đơn đặt hàng cho đến ngày</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Số tiền đặt hàng từ</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Hiển thị đơn đặt hàng với số tiền tối thiểu</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Số tiền đặt hàng là</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Hiển thị đơn đặt hàng với số tiền tối đa</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Tìm kiếm theo sản phẩm ...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Tìm kiếm theo sản phẩm</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Tình trạng thanh toán</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Tìm kiếm miễn phí qua điện thoại, tên, email, v.v.</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Gửi tiêu chí này</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Đặt lại bộ lọc</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Xuất tất cả</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Chọn sắp xếp</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Mới&gt; Cũ]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Cũ&gt; Mới]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Cao&gt; Thấp]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Thấp&gt; Cao]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Nhiệm vụ đã hoàn thành</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>bản dịch từ mô-đun đa ngôn ngữ đã được tìm thấy trong cơ sở dữ liệu của bạn.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Cảnh báo! Thay đổi ngôn ngữ mặc định có thể phá vỡ các bản dịch trên trang web của bạn.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Bạn có chắc muốn tiếp tục không?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Cảnh báo! Ngôn ngữ mặc định thay đổi có thể sẽ phá vỡ trang web của bạn.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Chi tiết vận chuyển</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Loại hình vận chuyển</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>đơn đặt hàng vẫn chưa hoàn thành</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>đơn đặt hàng đã hoàn thành</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Được tạo lúc</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Cập nhật tại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem lướt qua </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Thay thế các giá trị ngôn ngữ</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Bản dịch được nhập</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bản dịch không được tìm thấy trong cơ sở dữ liệu. Bạn có muốn nhập bản dịch không? </t>
+    <t>Đang tải lại kiểu</t>
   </si>
 </sst>
 </file>
@@ -18868,7 +18328,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70023,7 +69483,7 @@
         <v>5781</v>
       </c>
       <c r="D3009" t="s">
-        <v>3214</v>
+        <v>5782</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70037,10 +69497,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="D3010" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70054,10 +69514,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="D3011" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70071,10 +69531,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="D3012" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70088,10 +69548,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="D3013" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70105,10 +69565,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="D3014" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70122,10 +69582,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="D3015" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70139,10 +69599,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="D3016" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70156,10 +69616,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="D3017" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70173,10 +69633,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="D3018" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70190,10 +69650,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D3019" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70207,7 +69667,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D3020" t="s">
         <v>1563</v>
@@ -70224,10 +69684,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="D3021" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70241,10 +69701,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="D3022" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70258,10 +69718,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="D3023" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70275,10 +69735,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="D3024" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70292,10 +69752,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="D3025" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70309,10 +69769,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="D3026" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70326,10 +69786,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="D3027" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70343,10 +69803,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="D3028" t="s">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70360,10 +69820,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="D3029" t="s">
-        <v>5818</v>
+        <v>5819</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70377,10 +69837,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="D3030" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70394,7 +69854,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="D3031" t="s">
         <v>1799</v>
@@ -70411,10 +69871,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="D3032" t="s">
-        <v>5823</v>
+        <v>5824</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70428,10 +69888,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5824</v>
+        <v>5825</v>
       </c>
       <c r="D3033" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70445,10 +69905,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="D3034" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70462,10 +69922,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="D3035" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70479,10 +69939,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="D3036" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70496,10 +69956,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="D3037" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70513,10 +69973,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="D3038" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70530,10 +69990,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="D3039" t="s">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70547,10 +70007,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="D3040" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70564,10 +70024,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
       <c r="D3041" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70581,10 +70041,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="D3042" t="s">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70598,10 +70058,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5844</v>
+        <v>5845</v>
       </c>
       <c r="D3043" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70615,10 +70075,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="D3044" t="s">
-        <v>5847</v>
+        <v>5848</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70632,10 +70092,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="D3045" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70649,10 +70109,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="D3046" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70666,7 +70126,7 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="D3047" t="s">
         <v>1959</v>
@@ -70683,7 +70143,7 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="D3048" t="s">
         <v>3116</v>
@@ -70700,10 +70160,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="D3049" t="s">
-        <v>5855</v>
+        <v>5856</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70717,10 +70177,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="D3050" t="s">
-        <v>5857</v>
+        <v>5858</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70734,10 +70194,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5858</v>
+        <v>5859</v>
       </c>
       <c r="D3051" t="s">
-        <v>5859</v>
+        <v>5860</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70751,10 +70211,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="D3052" t="s">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70768,10 +70228,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5862</v>
+        <v>5863</v>
       </c>
       <c r="D3053" t="s">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70785,10 +70245,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5864</v>
+        <v>5865</v>
       </c>
       <c r="D3054" t="s">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70802,10 +70262,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="D3055" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70819,10 +70279,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="D3056" t="s">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70836,10 +70296,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="D3057" t="s">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70853,10 +70313,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="D3058" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70870,10 +70330,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="D3059" t="s">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70887,10 +70347,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="D3060" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70904,10 +70364,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
       <c r="D3061" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70918,13 +70378,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5880</v>
+        <v>5881</v>
       </c>
       <c r="C3062" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="D3062" t="s">
-        <v>5882</v>
+        <v>5883</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70938,10 +70398,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="D3063" t="s">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70955,10 +70415,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5885</v>
+        <v>5886</v>
       </c>
       <c r="D3064" t="s">
-        <v>5886</v>
+        <v>4238</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70992,7 +70452,7 @@
         <v>5889</v>
       </c>
       <c r="D3066" t="s">
-        <v>5889</v>
+        <v>5890</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71006,10 +70466,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5890</v>
+        <v>5891</v>
       </c>
       <c r="D3067" t="s">
-        <v>5891</v>
+        <v>5892</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71023,10 +70483,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5892</v>
+        <v>5893</v>
       </c>
       <c r="D3068" t="s">
-        <v>5454</v>
+        <v>5894</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71040,10 +70500,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5893</v>
+        <v>5895</v>
       </c>
       <c r="D3069" t="s">
-        <v>5456</v>
+        <v>5896</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71057,10 +70517,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5894</v>
+        <v>5897</v>
       </c>
       <c r="D3070" t="s">
-        <v>5458</v>
+        <v>382</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71074,10 +70534,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5895</v>
+        <v>5898</v>
       </c>
       <c r="D3071" t="s">
-        <v>5460</v>
+        <v>5899</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71091,10 +70551,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5896</v>
+        <v>5900</v>
       </c>
       <c r="D3072" t="s">
-        <v>5462</v>
+        <v>5900</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71108,10 +70568,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5897</v>
+        <v>5901</v>
       </c>
       <c r="D3073" t="s">
-        <v>5464</v>
+        <v>5901</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71125,10 +70585,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5898</v>
+        <v>5902</v>
       </c>
       <c r="D3074" t="s">
-        <v>5466</v>
+        <v>5903</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71142,10 +70602,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5899</v>
+        <v>5904</v>
       </c>
       <c r="D3075" t="s">
-        <v>5468</v>
+        <v>1647</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71159,10 +70619,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5900</v>
+        <v>5905</v>
       </c>
       <c r="D3076" t="s">
-        <v>5901</v>
+        <v>5906</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71176,10 +70636,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5902</v>
+        <v>5907</v>
       </c>
       <c r="D3077" t="s">
-        <v>5903</v>
+        <v>5908</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71193,10 +70653,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5904</v>
+        <v>5909</v>
       </c>
       <c r="D3078" t="s">
-        <v>5905</v>
+        <v>2134</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71210,10 +70670,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5906</v>
+        <v>5910</v>
       </c>
       <c r="D3079" t="s">
-        <v>5907</v>
+        <v>5911</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71227,10 +70687,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5908</v>
+        <v>5912</v>
       </c>
       <c r="D3080" t="s">
-        <v>5909</v>
+        <v>5913</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71244,10 +70704,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5910</v>
+        <v>5914</v>
       </c>
       <c r="D3081" t="s">
-        <v>5911</v>
+        <v>5915</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71261,10 +70721,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5912</v>
+        <v>5916</v>
       </c>
       <c r="D3082" t="s">
-        <v>5913</v>
+        <v>5917</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71278,10 +70738,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5914</v>
+        <v>5918</v>
       </c>
       <c r="D3083" t="s">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71295,10 +70755,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5916</v>
+        <v>5920</v>
       </c>
       <c r="D3084" t="s">
-        <v>5917</v>
+        <v>5921</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71312,10 +70772,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5918</v>
+        <v>5922</v>
       </c>
       <c r="D3085" t="s">
-        <v>5919</v>
+        <v>5923</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71329,10 +70789,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5920</v>
+        <v>5924</v>
       </c>
       <c r="D3086" t="s">
-        <v>5921</v>
+        <v>5925</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71346,10 +70806,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5922</v>
+        <v>5926</v>
       </c>
       <c r="D3087" t="s">
-        <v>5923</v>
+        <v>5927</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71363,10 +70823,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5924</v>
+        <v>5928</v>
       </c>
       <c r="D3088" t="s">
-        <v>5925</v>
+        <v>5928</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71380,10 +70840,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5926</v>
+        <v>5929</v>
       </c>
       <c r="D3089" t="s">
-        <v>5927</v>
+        <v>5930</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71397,10 +70857,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5928</v>
+        <v>5931</v>
       </c>
       <c r="D3090" t="s">
-        <v>5929</v>
+        <v>5932</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71414,10 +70874,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5930</v>
+        <v>5933</v>
       </c>
       <c r="D3091" t="s">
-        <v>5931</v>
+        <v>5934</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71431,10 +70891,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5932</v>
+        <v>5935</v>
       </c>
       <c r="D3092" t="s">
-        <v>5933</v>
+        <v>5936</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71448,10 +70908,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5934</v>
+        <v>5937</v>
       </c>
       <c r="D3093" t="s">
-        <v>5334</v>
+        <v>5938</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71465,10 +70925,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5935</v>
+        <v>5939</v>
       </c>
       <c r="D3094" t="s">
-        <v>5336</v>
+        <v>5940</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71482,10 +70942,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5936</v>
+        <v>5941</v>
       </c>
       <c r="D3095" t="s">
-        <v>5338</v>
+        <v>5942</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71499,10 +70959,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5937</v>
+        <v>5943</v>
       </c>
       <c r="D3096" t="s">
-        <v>5340</v>
+        <v>5944</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71516,10 +70976,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5938</v>
+        <v>5945</v>
       </c>
       <c r="D3097" t="s">
-        <v>5939</v>
+        <v>5946</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71533,10 +70993,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5940</v>
+        <v>5947</v>
       </c>
       <c r="D3098" t="s">
-        <v>5941</v>
+        <v>5948</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71550,10 +71010,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5942</v>
+        <v>5949</v>
       </c>
       <c r="D3099" t="s">
-        <v>5942</v>
+        <v>5950</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71567,10 +71027,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5943</v>
+        <v>5951</v>
       </c>
       <c r="D3100" t="s">
-        <v>5943</v>
+        <v>5952</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71584,10 +71044,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5944</v>
+        <v>5953</v>
       </c>
       <c r="D3101" t="s">
-        <v>5945</v>
+        <v>1505</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71601,10 +71061,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5946</v>
+        <v>5954</v>
       </c>
       <c r="D3102" t="s">
-        <v>5947</v>
+        <v>5955</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71618,10 +71078,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5948</v>
+        <v>5956</v>
       </c>
       <c r="D3103" t="s">
-        <v>5949</v>
+        <v>5957</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71635,10 +71095,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5950</v>
+        <v>5958</v>
       </c>
       <c r="D3104" t="s">
-        <v>5951</v>
+        <v>5959</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71652,10 +71112,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5952</v>
+        <v>5960</v>
       </c>
       <c r="D3105" t="s">
-        <v>5953</v>
+        <v>5961</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71669,10 +71129,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5954</v>
+        <v>5962</v>
       </c>
       <c r="D3106" t="s">
-        <v>5955</v>
+        <v>5963</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71686,10 +71146,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5956</v>
+        <v>5964</v>
       </c>
       <c r="D3107" t="s">
-        <v>5957</v>
+        <v>5965</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71703,10 +71163,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5958</v>
+        <v>5966</v>
       </c>
       <c r="D3108" t="s">
-        <v>5959</v>
+        <v>5967</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71719,11 +71179,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5960</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5961</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71736,11 +71196,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5969</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71754,10 +71214,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5962</v>
+        <v>5970</v>
       </c>
       <c r="D3111" t="s">
-        <v>5962</v>
+        <v>5971</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71771,10 +71231,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5963</v>
+        <v>5972</v>
       </c>
       <c r="D3112" t="s">
-        <v>5963</v>
+        <v>5973</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71788,10 +71248,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5964</v>
+        <v>5974</v>
       </c>
       <c r="D3113" t="s">
-        <v>5965</v>
+        <v>5975</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71805,10 +71265,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5966</v>
+        <v>5976</v>
       </c>
       <c r="D3114" t="s">
-        <v>5967</v>
+        <v>5977</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71822,10 +71282,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5968</v>
+        <v>5978</v>
       </c>
       <c r="D3115" t="s">
-        <v>5969</v>
+        <v>5979</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71839,10 +71299,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5970</v>
+        <v>5980</v>
       </c>
       <c r="D3116" t="s">
-        <v>5971</v>
+        <v>5981</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71856,10 +71316,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5972</v>
+        <v>5982</v>
       </c>
       <c r="D3117" t="s">
-        <v>5973</v>
+        <v>5983</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71873,10 +71333,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5974</v>
+        <v>5984</v>
       </c>
       <c r="D3118" t="s">
-        <v>5975</v>
+        <v>5985</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71890,1678 +71350,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5976</v>
+        <v>5986</v>
       </c>
       <c r="D3119" t="s">
-        <v>5977</v>
+        <v>5987</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5978</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5979</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5981</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5985</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5998</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5999</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6000</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6001</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6002</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6003</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6004</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6005</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6006</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6007</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6047</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5880</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6057</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6057</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>2242</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
